--- a/directory/templates/template-absensi.xlsx
+++ b/directory/templates/template-absensi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\hrmis-master\directory\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7169D915-39CD-42F4-9989-2C663D1D421E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5406164-7392-4838-80B4-7B1DDE52CC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31A0B364-D528-4097-98D0-DBAC8A79801F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>NO</t>
   </si>
@@ -94,6 +94,15 @@
   </si>
   <si>
     <t>[jam_kerja]</t>
+  </si>
+  <si>
+    <t>ID ABSEN</t>
+  </si>
+  <si>
+    <t>[absen_id]</t>
+  </si>
+  <si>
+    <t>User : {user}</t>
   </si>
 </sst>
 </file>
@@ -103,7 +112,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-&quot;Rp&quot;* #,##0_-;&quot;-Rp&quot;* #,##0_-;_-&quot;Rp&quot;* \-_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,8 +164,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,8 +203,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -283,21 +305,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -306,9 +319,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -356,9 +366,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -366,33 +373,39 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -716,79 +729,80 @@
   <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="7.6640625" customWidth="1"/>
     <col min="3" max="3" width="23.44140625" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="9"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="8"/>
     </row>
     <row r="2" spans="1:26" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="9"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="8"/>
     </row>
     <row r="3" spans="1:26" ht="21.6" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -800,27 +814,29 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="9"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="8"/>
     </row>
     <row r="4" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
+      <c r="B4" s="33" t="s">
+        <v>25</v>
+      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
@@ -828,26 +844,29 @@
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="9"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="8"/>
     </row>
     <row r="5" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
@@ -855,29 +874,26 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="9"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="8"/>
     </row>
     <row r="6" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
@@ -885,208 +901,202 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="9"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="8"/>
     </row>
-    <row r="7" spans="1:26" ht="21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
+      <c r="B7" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="26"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="21"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
     </row>
     <row r="8" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="24"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="9"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="29"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="8"/>
     </row>
     <row r="9" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>16</v>
+      <c r="B9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="30"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="21"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="8"/>
     </row>
     <row r="10" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="25"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="9"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="8"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
+      <c r="A11" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B1:L2"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
+  <mergeCells count="9">
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B1:M2"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/directory/templates/template-absensi.xlsx
+++ b/directory/templates/template-absensi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\hrmis-master\directory\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5406164-7392-4838-80B4-7B1DDE52CC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF0723F-1D22-4F98-B2F4-45C945D57695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31A0B364-D528-4097-98D0-DBAC8A79801F}"/>
   </bookViews>
@@ -93,9 +93,6 @@
     <t>[mesin_p]</t>
   </si>
   <si>
-    <t>[jam_kerja]</t>
-  </si>
-  <si>
     <t>ID ABSEN</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>User : {user}</t>
+  </si>
+  <si>
+    <t>[jam_kerja] Jam</t>
   </si>
 </sst>
 </file>
@@ -310,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -373,6 +373,23 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -385,27 +402,9 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6F3688-F949-4382-8B45-577625C51054}">
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,25 +742,26 @@
     <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
       <c r="N1" s="19"/>
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
@@ -778,18 +778,18 @@
     </row>
     <row r="2" spans="1:26" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
       <c r="N2" s="19"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
@@ -834,8 +834,8 @@
     </row>
     <row r="4" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="33" t="s">
-        <v>25</v>
+      <c r="B4" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
@@ -921,32 +921,32 @@
     </row>
     <row r="7" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="31" t="s">
+      <c r="D7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="25" t="s">
+      <c r="H7" s="33"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="28" t="s">
+      <c r="K7" s="33"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="26" t="s">
         <v>12</v>
       </c>
       <c r="N7" s="21"/>
@@ -965,11 +965,11 @@
     </row>
     <row r="8" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="30"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="35"/>
       <c r="G8" s="15" t="s">
         <v>15</v>
       </c>
@@ -988,7 +988,7 @@
       <c r="L8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="29"/>
+      <c r="M8" s="27"/>
       <c r="N8" s="22"/>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
@@ -1012,7 +1012,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>4</v>
@@ -1039,7 +1039,7 @@
         <v>21</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N9" s="21"/>
       <c r="O9" s="11"/>
@@ -1056,7 +1056,7 @@
       <c r="Z9" s="8"/>
     </row>
     <row r="10" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -1083,9 +1083,6 @@
       <c r="Y10" s="13"/>
       <c r="Z10" s="8"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
-    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B7:B8"/>

--- a/directory/templates/template-absensi.xlsx
+++ b/directory/templates/template-absensi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\hrmis-master\directory\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF0723F-1D22-4F98-B2F4-45C945D57695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2D122F-E3B4-4A11-A8D6-EF292F1FB908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31A0B364-D528-4097-98D0-DBAC8A79801F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>NO</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>[jam_kerja] Jam</t>
+  </si>
+  <si>
+    <t>SHIFT</t>
+  </si>
+  <si>
+    <t>[jenis_shift]</t>
   </si>
 </sst>
 </file>
@@ -310,7 +316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -375,6 +381,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -387,23 +396,23 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -728,7 +737,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,26 +753,27 @@
     <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="7"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="19"/>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
@@ -778,20 +788,20 @@
     </row>
     <row r="2" spans="1:26" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="7"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="19"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
@@ -819,7 +829,7 @@
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>
-      <c r="O3" s="9"/>
+      <c r="O3" s="20"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
@@ -849,7 +859,7 @@
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
-      <c r="O4" s="9"/>
+      <c r="O4" s="20"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
@@ -879,7 +889,7 @@
       <c r="L5" s="20"/>
       <c r="M5" s="20"/>
       <c r="N5" s="20"/>
-      <c r="O5" s="9"/>
+      <c r="O5" s="20"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
@@ -906,7 +916,7 @@
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
-      <c r="O6" s="9"/>
+      <c r="O6" s="20"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
@@ -921,36 +931,38 @@
     </row>
     <row r="7" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="32" t="s">
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="26" t="s">
+      <c r="K7" s="32"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="21"/>
-      <c r="O7" s="8"/>
+      <c r="N7" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="21"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
@@ -965,11 +977,11 @@
     </row>
     <row r="8" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="35"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="34"/>
       <c r="G8" s="15" t="s">
         <v>15</v>
       </c>
@@ -988,9 +1000,9 @@
       <c r="L8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="27"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="10"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="22"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
@@ -1041,8 +1053,10 @@
       <c r="M9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="21"/>
-      <c r="O9" s="11"/>
+      <c r="N9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="26"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
@@ -1070,7 +1084,7 @@
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="N10" s="23"/>
-      <c r="O10" s="13"/>
+      <c r="O10" s="23"/>
       <c r="P10" s="13"/>
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
@@ -1084,12 +1098,13 @@
       <c r="Z10" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="B1:N2"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B1:M2"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="M7:M8"/>

--- a/directory/templates/template-absensi.xlsx
+++ b/directory/templates/template-absensi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\hrmis-master\directory\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2D122F-E3B4-4A11-A8D6-EF292F1FB908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19425768-F4EA-4D75-BEB2-E5EDDFB2178F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31A0B364-D528-4097-98D0-DBAC8A79801F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>NO</t>
   </si>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>[jenis_shift]</t>
+  </si>
+  <si>
+    <t>UNIT</t>
+  </si>
+  <si>
+    <t>SUB-UNIT</t>
+  </si>
+  <si>
+    <t>[nama_unit]</t>
+  </si>
+  <si>
+    <t>[nama_sub_unit]</t>
   </si>
 </sst>
 </file>
@@ -316,7 +328,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -365,9 +377,6 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -390,6 +399,9 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -408,10 +420,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -734,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6F3688-F949-4382-8B45-577625C51054}">
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -747,13 +756,14 @@
     <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.21875" customWidth="1"/>
     <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -773,9 +783,9 @@
       <c r="L1" s="35"/>
       <c r="M1" s="35"/>
       <c r="N1" s="35"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
       <c r="T1" s="7"/>
@@ -788,22 +798,22 @@
     </row>
     <row r="2" spans="1:26" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
@@ -824,14 +834,14 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
@@ -844,7 +854,7 @@
     </row>
     <row r="4" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="3"/>
@@ -854,15 +864,14 @@
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="14"/>
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
@@ -884,15 +893,14 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="14"/>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
@@ -911,15 +919,14 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="14"/>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
@@ -931,40 +938,44 @@
     </row>
     <row r="7" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="26" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="I7" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="32"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="27" t="s">
+      <c r="M7" s="32"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="27" t="s">
+      <c r="P7" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="21"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
+      <c r="Q7" s="20"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
@@ -977,34 +988,34 @@
     </row>
     <row r="8" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="30"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="15" t="s">
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="J8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="K8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="L8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="M8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="N8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="21"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -1029,36 +1040,40 @@
       <c r="E9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="J9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="K9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="L9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="M9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="N9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="O9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="18" t="s">
+      <c r="P9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="26"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
+      <c r="Q9" s="25"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
@@ -1070,7 +1085,7 @@
       <c r="Z9" s="8"/>
     </row>
     <row r="10" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -1083,10 +1098,10 @@
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
@@ -1097,18 +1112,24 @@
       <c r="Y10" s="13"/>
       <c r="Z10" s="8"/>
     </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="B1:N2"/>
+  <mergeCells count="12">
+    <mergeCell ref="P7:P8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/directory/templates/template-absensi.xlsx
+++ b/directory/templates/template-absensi.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\hrmis-master\directory\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19425768-F4EA-4D75-BEB2-E5EDDFB2178F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661B34DB-4ED2-4400-BFDF-FE014CB91159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31A0B364-D528-4097-98D0-DBAC8A79801F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>NO</t>
   </si>
@@ -36,18 +36,9 @@
     <t>TANGGAL</t>
   </si>
   <si>
-    <t>Export Date : {app_export_date}</t>
-  </si>
-  <si>
-    <t>[pegawai_nama]</t>
-  </si>
-  <si>
     <t>NAMA PEGAWAI</t>
   </si>
   <si>
-    <t>SIMABSEN | ABSEN {status}</t>
-  </si>
-  <si>
     <t>[tanggal_absen]</t>
   </si>
   <si>
@@ -84,27 +75,9 @@
     <t>[verifikasi_m]</t>
   </si>
   <si>
-    <t>[mesin_m]</t>
-  </si>
-  <si>
     <t>[verifikasi_p]</t>
   </si>
   <si>
-    <t>[mesin_p]</t>
-  </si>
-  <si>
-    <t>ID ABSEN</t>
-  </si>
-  <si>
-    <t>[absen_id]</t>
-  </si>
-  <si>
-    <t>User : {user}</t>
-  </si>
-  <si>
-    <t>[jam_kerja] Jam</t>
-  </si>
-  <si>
     <t>SHIFT</t>
   </si>
   <si>
@@ -121,6 +94,27 @@
   </si>
   <si>
     <t>[nama_sub_unit]</t>
+  </si>
+  <si>
+    <t>[nama]</t>
+  </si>
+  <si>
+    <t>[mesin_masuk]</t>
+  </si>
+  <si>
+    <t>[mesin_pulang]</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>: {cxfilter_unit}</t>
+  </si>
+  <si>
+    <t>SIMABSEN | ABSEN PERIODE {status}</t>
+  </si>
+  <si>
+    <t>[jam_kerja]</t>
   </si>
 </sst>
 </file>
@@ -130,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-&quot;Rp&quot;* #,##0_-;&quot;-Rp&quot;* #,##0_-;_-&quot;Rp&quot;* \-_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,13 +172,6 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -328,7 +315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -388,20 +375,22 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -419,9 +408,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -743,49 +744,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6F3688-F949-4382-8B45-577625C51054}">
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="7.6640625" customWidth="1"/>
     <col min="3" max="3" width="23.44140625" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.21875" customWidth="1"/>
     <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
+      <c r="B1" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
       <c r="T1" s="7"/>
@@ -798,22 +797,22 @@
     </row>
     <row r="2" spans="1:26" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
@@ -854,10 +853,12 @@
     </row>
     <row r="4" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="3"/>
+      <c r="B4" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>27</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -883,9 +884,7 @@
     </row>
     <row r="5" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
@@ -938,43 +937,41 @@
     </row>
     <row r="7" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="32"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="26" t="s">
-        <v>26</v>
-      </c>
+      <c r="O7" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="14"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
@@ -988,33 +985,33 @@
     </row>
     <row r="8" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="30"/>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
-      <c r="H8" s="34"/>
+      <c r="H8" s="15" t="s">
+        <v>12</v>
+      </c>
       <c r="I8" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
+        <v>14</v>
+      </c>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
@@ -1032,48 +1029,46 @@
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>4</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="J9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q9" s="25"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="24"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
@@ -1085,7 +1080,7 @@
       <c r="Z9" s="8"/>
     </row>
     <row r="10" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -1098,8 +1093,8 @@
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
       <c r="R10" s="13"/>
@@ -1113,23 +1108,33 @@
       <c r="Z10" s="8"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
     </row>
+    <row r="18" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="35"/>
+    </row>
+    <row r="19" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="35"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H20" s="36"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="P7:P8"/>
+  <mergeCells count="11">
+    <mergeCell ref="O7:O8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:N8"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="H7:H8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B1:Q2"/>
+    <mergeCell ref="B1:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/directory/templates/template-absensi.xlsx
+++ b/directory/templates/template-absensi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\hrmis-master\directory\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661B34DB-4ED2-4400-BFDF-FE014CB91159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFBF1E4-40D7-4C32-96BF-3BEA72863228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31A0B364-D528-4097-98D0-DBAC8A79801F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>NO</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>[jam_kerja]</t>
+  </si>
+  <si>
+    <t>Sub Unit</t>
+  </si>
+  <si>
+    <t>: {cxfilter_sub_unit}</t>
   </si>
 </sst>
 </file>
@@ -382,6 +388,21 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -408,21 +429,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -747,7 +753,7 @@
   <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -767,24 +773,24 @@
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
       <c r="T1" s="7"/>
@@ -797,22 +803,22 @@
     </row>
     <row r="2" spans="1:26" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
@@ -859,8 +865,12 @@
       <c r="C4" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
+      <c r="D4" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>31</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
@@ -937,38 +947,38 @@
     </row>
     <row r="7" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="31" t="s">
+      <c r="I7" s="37"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="32"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="27" t="s">
+      <c r="L7" s="37"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="27" t="s">
+      <c r="O7" s="32" t="s">
         <v>17</v>
       </c>
       <c r="P7" s="14"/>
@@ -985,12 +995,12 @@
     </row>
     <row r="8" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="15" t="s">
         <v>12</v>
       </c>
@@ -1009,8 +1019,8 @@
       <c r="M8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="10"/>
@@ -1114,16 +1124,17 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="18" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H18" s="35"/>
+      <c r="H18" s="26"/>
     </row>
     <row r="19" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H19" s="35"/>
+      <c r="H19" s="26"/>
     </row>
     <row r="20" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H20" s="36"/>
+      <c r="H20" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:O2"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -1134,7 +1145,6 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B1:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/directory/templates/template-absensi.xlsx
+++ b/directory/templates/template-absensi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\hrmis-master\directory\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFBF1E4-40D7-4C32-96BF-3BEA72863228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9398FECF-C436-46FE-B991-A9227629A98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31A0B364-D528-4097-98D0-DBAC8A79801F}"/>
   </bookViews>
@@ -99,21 +99,12 @@
     <t>[nama]</t>
   </si>
   <si>
-    <t>[mesin_masuk]</t>
-  </si>
-  <si>
-    <t>[mesin_pulang]</t>
-  </si>
-  <si>
     <t>Unit</t>
   </si>
   <si>
     <t>: {cxfilter_unit}</t>
   </si>
   <si>
-    <t>SIMABSEN | ABSEN PERIODE {status}</t>
-  </si>
-  <si>
     <t>[jam_kerja]</t>
   </si>
   <si>
@@ -121,6 +112,15 @@
   </si>
   <si>
     <t>: {cxfilter_sub_unit}</t>
+  </si>
+  <si>
+    <t>[nama_mesin_masuk]</t>
+  </si>
+  <si>
+    <t>[nama_mesin_pulang]</t>
+  </si>
+  <si>
+    <t>HRMIS | Absen periode {tanggal_periode}</t>
   </si>
 </sst>
 </file>
@@ -321,7 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -385,9 +385,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -400,6 +397,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -429,6 +429,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -753,12 +756,12 @@
   <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.44140625" customWidth="1"/>
     <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.21875" customWidth="1"/>
@@ -774,7 +777,7 @@
     <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="30" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -789,8 +792,8 @@
       <c r="M1" s="30"/>
       <c r="N1" s="30"/>
       <c r="O1" s="30"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
       <c r="T1" s="7"/>
@@ -817,8 +820,8 @@
       <c r="M2" s="31"/>
       <c r="N2" s="31"/>
       <c r="O2" s="31"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
@@ -859,18 +862,13 @@
     </row>
     <row r="4" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>31</v>
-      </c>
+      <c r="B4" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="40"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
@@ -894,9 +892,13 @@
     </row>
     <row r="5" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
+      <c r="B5" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="40"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="2"/>
@@ -1060,7 +1062,7 @@
         <v>15</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>11</v>
@@ -1069,10 +1071,10 @@
         <v>16</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N9" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O9" s="18" t="s">
         <v>18</v>
@@ -1124,16 +1126,16 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="18" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H18" s="26"/>
+      <c r="H18" s="25"/>
     </row>
     <row r="19" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H19" s="26"/>
+      <c r="H19" s="25"/>
     </row>
     <row r="20" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H20" s="27"/>
+      <c r="H20" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
     <mergeCell ref="B1:O2"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="B7:B8"/>
@@ -1145,6 +1147,8 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/directory/templates/template-absensi.xlsx
+++ b/directory/templates/template-absensi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\hrmis-master\directory\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9398FECF-C436-46FE-B991-A9227629A98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D25478A-1817-45B8-844A-2196EADBC171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31A0B364-D528-4097-98D0-DBAC8A79801F}"/>
   </bookViews>
@@ -81,9 +81,6 @@
     <t>SHIFT</t>
   </si>
   <si>
-    <t>[jenis_shift]</t>
-  </si>
-  <si>
     <t>UNIT</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>HRMIS | Absen periode {tanggal_periode}</t>
+  </si>
+  <si>
+    <t>[jadwal_nama]</t>
   </si>
 </sst>
 </file>
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6F3688-F949-4382-8B45-577625C51054}">
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -777,7 +777,7 @@
     <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -863,10 +863,10 @@
     <row r="4" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>25</v>
       </c>
       <c r="D4" s="40"/>
       <c r="F4" s="3"/>
@@ -893,10 +893,10 @@
     <row r="5" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>28</v>
       </c>
       <c r="D5" s="40"/>
       <c r="E5" s="3"/>
@@ -962,10 +962,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="34" t="s">
         <v>19</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>20</v>
       </c>
       <c r="H7" s="36" t="s">
         <v>7</v>
@@ -1047,13 +1047,13 @@
         <v>4</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>10</v>
@@ -1062,7 +1062,7 @@
         <v>15</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>11</v>
@@ -1071,13 +1071,13 @@
         <v>16</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N9" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="P9" s="14"/>
       <c r="Q9" s="24"/>

--- a/directory/templates/template-absensi.xlsx
+++ b/directory/templates/template-absensi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\hrmis-master\directory\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D25478A-1817-45B8-844A-2196EADBC171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3349B403-3935-49B9-AF59-FCDCDF2B1D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31A0B364-D528-4097-98D0-DBAC8A79801F}"/>
   </bookViews>
@@ -755,15 +755,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6F3688-F949-4382-8B45-577625C51054}">
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
     <col min="5" max="5" width="25.21875" customWidth="1"/>
     <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
@@ -952,11 +952,11 @@
       <c r="B7" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>6</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>2</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>3</v>
@@ -998,8 +998,8 @@
     <row r="8" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
@@ -1041,10 +1041,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>22</v>
@@ -1139,12 +1139,12 @@
     <mergeCell ref="B1:O2"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="N7:N8"/>
-    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C7:C8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="C4:D4"/>

--- a/directory/templates/template-absensi.xlsx
+++ b/directory/templates/template-absensi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\hrmis-master\directory\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\hrmis\directory\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3349B403-3935-49B9-AF59-FCDCDF2B1D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD1B4A9-F906-4647-8788-218859577C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31A0B364-D528-4097-98D0-DBAC8A79801F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{31A0B364-D528-4097-98D0-DBAC8A79801F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>NO</t>
   </si>
@@ -121,14 +121,21 @@
   </si>
   <si>
     <t>[jadwal_nama]</t>
+  </si>
+  <si>
+    <t>[cek_waktu_masuk]</t>
+  </si>
+  <si>
+    <t>[cek_waktu_pulang]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-&quot;Rp&quot;* #,##0_-;&quot;-Rp&quot;* #,##0_-;_-&quot;Rp&quot;* \-_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -221,7 +228,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -294,17 +301,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -321,7 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -365,9 +361,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -391,54 +384,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{F23446B0-EBF5-43EA-ACDB-CA130876891E}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -755,46 +786,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6F3688-F949-4382-8B45-577625C51054}">
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M3" activeCellId="1" sqref="I1:I1048576 M1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="5" max="5" width="25.21875" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" customWidth="1"/>
+    <col min="14" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="7"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="28"/>
       <c r="S1" s="7"/>
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
@@ -804,25 +838,25 @@
       <c r="Y1" s="7"/>
       <c r="Z1" s="8"/>
     </row>
-    <row r="2" spans="1:26" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="7"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="28"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
@@ -832,7 +866,7 @@
       <c r="Y2" s="7"/>
       <c r="Z2" s="8"/>
     </row>
-    <row r="3" spans="1:26" ht="21.6" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -842,15 +876,15 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="9"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
@@ -860,27 +894,28 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="8"/>
     </row>
-    <row r="4" spans="1:26" ht="21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="30"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
       <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
@@ -890,28 +925,29 @@
       <c r="Y4" s="9"/>
       <c r="Z4" s="8"/>
     </row>
-    <row r="5" spans="1:26" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
       <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
@@ -921,7 +957,7 @@
       <c r="Y5" s="9"/>
       <c r="Z5" s="8"/>
     </row>
-    <row r="6" spans="1:26" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
@@ -930,14 +966,15 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
       <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
@@ -947,45 +984,45 @@
       <c r="Y6" s="9"/>
       <c r="Z6" s="8"/>
     </row>
-    <row r="7" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="37"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="38"/>
-      <c r="K7" s="36" t="s">
+      <c r="K7" s="38"/>
+      <c r="L7" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="37"/>
       <c r="M7" s="38"/>
-      <c r="N7" s="32" t="s">
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="32" t="s">
+      <c r="Q7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="8"/>
+      <c r="R7" s="19"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
@@ -995,37 +1032,37 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
     </row>
-    <row r="8" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="15" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="38"/>
+      <c r="J8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="K8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="L8" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="M8" s="38"/>
+      <c r="N8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="O8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="10"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="20"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
@@ -1035,7 +1072,7 @@
       <c r="Y8" s="10"/>
       <c r="Z8" s="8"/>
     </row>
-    <row r="9" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
         <v>1</v>
@@ -1055,33 +1092,37 @@
       <c r="G9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="K9" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="L9" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="M9" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="O9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="18" t="s">
+      <c r="P9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="18" t="s">
+      <c r="Q9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="11"/>
+      <c r="R9" s="23"/>
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
@@ -1091,8 +1132,8 @@
       <c r="Y9" s="11"/>
       <c r="Z9" s="8"/>
     </row>
-    <row r="10" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+    <row r="10" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -1107,9 +1148,9 @@
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="13"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
@@ -1119,36 +1160,39 @@
       <c r="Y10" s="13"/>
       <c r="Z10" s="8"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
-    </row>
-    <row r="18" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H18" s="25"/>
-    </row>
-    <row r="19" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H19" s="25"/>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H20" s="26"/>
+      <c r="R11" s="14"/>
+    </row>
+    <row r="18" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="24"/>
+    </row>
+    <row r="19" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B1:O2"/>
-    <mergeCell ref="O7:O8"/>
+  <mergeCells count="15">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B1:Q2"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="P7:P8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="Q7:Q8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
